--- a/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_within_hab_np.xlsx
+++ b/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_within_hab_np.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01625879376546</v>
+        <v>1.01625880150643</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0107212116539193</v>
+        <v>0.0107212117004818</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.52876912778871</v>
+        <v>1.52876985481792</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.930190130174711</v>
+        <v>0.930190125825495</v>
       </c>
       <c r="H3" t="n">
-        <v>0.012690643152109</v>
+        <v>0.0126906429838</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-5.30425383485198</v>
+        <v>-5.3042542231091</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0000214956114079919</v>
+        <v>0.0000214955656621724</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.13387551677776</v>
+        <v>1.13387551258589</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0119048325028795</v>
+        <v>0.0119048323973489</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>11.9667149014744</v>
+        <v>11.9667146111977</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00000000000000000000000000000100869607622029</v>
+        <v>0.00000000000000000000000000000100869960422941</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.915308320952535</v>
+        <v>0.915308309700883</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00901580940824397</v>
+        <v>0.00901580920057436</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.98417130456055</v>
+        <v>-8.98417264905264</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0000000000000000495313608602641</v>
+        <v>0.0000000000000000495307553281171</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.11573501133162</v>
+        <v>1.11573499870811</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00514952317019699</v>
+        <v>0.00514952310872609</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>23.7280074676589</v>
+        <v>23.7280050310514</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000352196984945726</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000352217384140132</v>
       </c>
     </row>
     <row r="7">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21897177791469</v>
+        <v>1.21897177910766</v>
       </c>
       <c r="H7" t="n">
-        <v>0.0119489607416794</v>
+        <v>0.011948960598532</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>20.1997312882921</v>
+        <v>20.1997316498911</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187019662795489</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187018293439452</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.15577492064351</v>
+        <v>1.155774928081</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0775617195725008</v>
+        <v>0.0775617188397881</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.157285128362</v>
+        <v>2.157285258515</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.834062438159572</v>
+        <v>0.834062431610743</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0687158477150181</v>
+        <v>0.0687158453534238</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.20237606798777</v>
+        <v>-2.20237622168859</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.19941422586259</v>
+        <v>1.19941421944121</v>
       </c>
       <c r="H10" t="n">
-        <v>0.076667042731442</v>
+        <v>0.0766670408566096</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.8446830605074</v>
+        <v>2.84468303108554</v>
       </c>
       <c r="L10" t="n">
-        <v>0.844657021444029</v>
+        <v>0.844657099455799</v>
       </c>
     </row>
     <row r="11">
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.721647808117505</v>
+        <v>0.721647797807475</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0448493134035949</v>
+        <v>0.0448493114217262</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-5.24901118292804</v>
+        <v>-5.24901156976929</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0000290543807894354</v>
+        <v>0.0000290543197852686</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.03775761563919</v>
+        <v>1.03775760340525</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0353136794227509</v>
+        <v>0.0353136785963111</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.08914248582462</v>
+        <v>1.08914215203765</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.43803889371783</v>
+        <v>1.43803889731001</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0843960764462103</v>
+        <v>0.0843960736685838</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>6.18999403033012</v>
+        <v>6.18999429207967</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000000114316337834729</v>
+        <v>0.000000114316148006892</v>
       </c>
     </row>
     <row r="14">
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.00013576693925</v>
+        <v>1.00013577540763</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0192806301420044</v>
+        <v>0.0192806303100428</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00704210153720281</v>
+        <v>0.00704254075242351</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.799289679009398</v>
+        <v>0.799289675086905</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0197753800713048</v>
+        <v>0.0197753798616798</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-9.05501398238972</v>
+        <v>-9.05501423229071</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0000000000000000259445553207146</v>
+        <v>0.0000000000000000259444959124296</v>
       </c>
     </row>
     <row r="16">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.13558243703501</v>
+        <v>1.13558243266376</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0219232746433299</v>
+        <v>0.02192327451699</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.58589572750281</v>
+        <v>6.58589554071637</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00000000859087048373042</v>
+        <v>0.00000000859088128537691</v>
       </c>
     </row>
     <row r="17">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.799181176627143</v>
+        <v>0.799181165938332</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0141602298762041</v>
+        <v>0.0141602295714447</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-12.6516682036426</v>
+        <v>-12.6516690615695</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000000000000000000000000000000000208096110606338</v>
+        <v>0.000000000000000000000000000000000208093837960387</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.13542828341224</v>
+        <v>1.13542826942765</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00988652405164735</v>
+        <v>0.00988652395823303</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>14.5865884639167</v>
+        <v>14.5865870075736</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000000000000000000000000000000000000000000000649554802674653</v>
+        <v>0.000000000000000000000000000000000000000000000649568665621974</v>
       </c>
     </row>
     <row r="19">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.42073952267518</v>
+        <v>1.42073952417851</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0252584536432102</v>
+        <v>0.0252584534014693</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>19.753061634578</v>
+        <v>19.7530619040476</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000143448138919882</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000001434473734222</v>
       </c>
     </row>
     <row r="20">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01588411760417</v>
+        <v>1.01588412583499</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0288500995438903</v>
+        <v>0.0288500997098938</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.55492382235119</v>
+        <v>0.554924108950215</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.9117863543789</v>
+        <v>0.911786349717869</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0363078423897715</v>
+        <v>0.0363078418948115</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.3191431522327</v>
+        <v>-2.3191433003679</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.09557777984681</v>
+        <v>1.09557777570341</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0318665342050007</v>
+        <v>0.0318665339435186</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.13828907252085</v>
+        <v>3.1382889563798</v>
       </c>
       <c r="L22" t="n">
-        <v>0.322880666760033</v>
+        <v>0.322880794706146</v>
       </c>
     </row>
     <row r="23">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.89752988414587</v>
+        <v>0.897529872285821</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0272780526601799</v>
+        <v>0.0272780519988985</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.55710635442383</v>
+        <v>-3.55710682843572</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0712428516143878</v>
+        <v>0.0712427231102025</v>
       </c>
     </row>
     <row r="24">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.0784475914739</v>
+        <v>1.07844757865757</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0145759857519659</v>
+        <v>0.0145759855455604</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.58776322735905</v>
+        <v>5.58776236080299</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0000043702461403174</v>
+        <v>0.0000043702679415886</v>
       </c>
     </row>
     <row r="25">
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.20157290639988</v>
+        <v>1.20157290799803</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0372731189695789</v>
+        <v>0.0372731185529547</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>5.91972407444242</v>
+        <v>5.91972419136083</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000000612716172064083</v>
+        <v>0.000000612715736495321</v>
       </c>
     </row>
     <row r="26">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.05346011691619</v>
+        <v>1.05346012897214</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0137454385935691</v>
+        <v>0.0137454387465042</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.99145530992364</v>
+        <v>3.99145618827971</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0124771222628132</v>
+        <v>0.0124770760422276</v>
       </c>
     </row>
     <row r="27">
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.98158433287551</v>
+        <v>0.981584329921569</v>
       </c>
       <c r="H27" t="n">
-        <v>0.017344950930503</v>
+        <v>0.0173449507888231</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.05189390290096</v>
+        <v>-1.05189407863323</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.14934524498323</v>
+        <v>1.14934523878369</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0149606503850107</v>
+        <v>0.0149606502544518</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>10.6933957544062</v>
+        <v>10.6933953756554</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00000000000000000000000207659697662222</v>
+        <v>0.00000000000000000000000207660545944933</v>
       </c>
     </row>
     <row r="29">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.931771708404983</v>
+        <v>0.931771694937617</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0124292923336859</v>
+        <v>0.0124292920895988</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.29764058426461</v>
+        <v>-5.29764169524881</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0000222886305047556</v>
+        <v>0.0000222884949346696</v>
       </c>
     </row>
     <row r="30">
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.0910192294206</v>
+        <v>1.09101921104988</v>
       </c>
       <c r="H30" t="n">
-        <v>0.0064605196629241</v>
+        <v>0.00646051957573813</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>14.711081229364</v>
+        <v>14.7110783366504</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000000000000000000000000000000000000000000000103979331853545</v>
+        <v>0.000000000000000000000000000000000000000000000103983777044131</v>
       </c>
     </row>
     <row r="31">
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.17090830251566</v>
+        <v>1.17090829972349</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0155842763874331</v>
+        <v>0.0155842762235852</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>11.8546182965937</v>
+        <v>11.8546182137945</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00000000000000000000000000000386935198224557</v>
+        <v>0.00000000000000000000000000000386935580687533</v>
       </c>
     </row>
   </sheetData>

--- a/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_within_hab_np.xlsx
+++ b/results/accel-glmm-results/diel-period-habitat/np/glmm_multi_comp_hab_within_hab_np.xlsx
@@ -467,10 +467,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.01625880150643</v>
+        <v>1.01625879373614</v>
       </c>
       <c r="H2" t="n">
-        <v>0.0107212117004818</v>
+        <v>0.0107212116540918</v>
       </c>
       <c r="I2" t="e">
         <v>#NUM!</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="K2" t="n">
-        <v>1.52876985481792</v>
+        <v>1.52876912498532</v>
       </c>
       <c r="L2" t="n">
         <v>1</v>
@@ -505,10 +505,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.930190125825495</v>
+        <v>0.930190130161032</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0126906429838</v>
+        <v>0.0126906431524224</v>
       </c>
       <c r="I3" t="e">
         <v>#NUM!</v>
@@ -517,10 +517,10 @@
         <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>-5.3042542231091</v>
+        <v>-5.30425383572082</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0000214955656621724</v>
+        <v>0.0000214956113056216</v>
       </c>
     </row>
     <row r="4">
@@ -543,10 +543,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.13387551258589</v>
+        <v>1.13387551670039</v>
       </c>
       <c r="H4" t="n">
-        <v>0.0119048323973489</v>
+        <v>0.011904832502531</v>
       </c>
       <c r="I4" t="e">
         <v>#NUM!</v>
@@ -555,10 +555,10 @@
         <v>1</v>
       </c>
       <c r="K4" t="n">
-        <v>11.9667146111977</v>
+        <v>11.9667148945084</v>
       </c>
       <c r="L4" t="n">
-        <v>0.00000000000000000000000000000100869960422941</v>
+        <v>0.00000000000000000000000000000100869616088415</v>
       </c>
     </row>
     <row r="5">
@@ -581,10 +581,10 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0.915308309700883</v>
+        <v>0.915308320965482</v>
       </c>
       <c r="H5" t="n">
-        <v>0.00901580920057436</v>
+        <v>0.00901580940858406</v>
       </c>
       <c r="I5" t="e">
         <v>#NUM!</v>
@@ -593,10 +593,10 @@
         <v>1</v>
       </c>
       <c r="K5" t="n">
-        <v>-8.98417264905264</v>
+        <v>-8.98417130291271</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0000000000000000495307553281171</v>
+        <v>0.0000000000000000495313616024238</v>
       </c>
     </row>
     <row r="6">
@@ -619,10 +619,10 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.11573499870811</v>
+        <v>1.11573501128767</v>
       </c>
       <c r="H6" t="n">
-        <v>0.00514952310872609</v>
+        <v>0.00514952316981853</v>
       </c>
       <c r="I6" t="e">
         <v>#NUM!</v>
@@ -631,10 +631,10 @@
         <v>1</v>
       </c>
       <c r="K6" t="n">
-        <v>23.7280050310514</v>
+        <v>23.7280074599334</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000352217384140132</v>
+        <v>0.0000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000000352197049622049</v>
       </c>
     </row>
     <row r="7">
@@ -657,10 +657,10 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.21897177910766</v>
+        <v>1.21897177784943</v>
       </c>
       <c r="H7" t="n">
-        <v>0.011948960598532</v>
+        <v>0.0119489607412398</v>
       </c>
       <c r="I7" t="e">
         <v>#NUM!</v>
@@ -669,10 +669,10 @@
         <v>1</v>
       </c>
       <c r="K7" t="n">
-        <v>20.1997316498911</v>
+        <v>20.1997312824924</v>
       </c>
       <c r="L7" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187018293439452</v>
+        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000000000187019684758693</v>
       </c>
     </row>
     <row r="8">
@@ -695,10 +695,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>1.155774928081</v>
+        <v>1.15577492026369</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0775617188397881</v>
+        <v>0.0775617195330156</v>
       </c>
       <c r="I8" t="e">
         <v>#NUM!</v>
@@ -707,7 +707,7 @@
         <v>1</v>
       </c>
       <c r="K8" t="n">
-        <v>2.157285258515</v>
+        <v>2.15728512385424</v>
       </c>
       <c r="L8" t="n">
         <v>1</v>
@@ -733,10 +733,10 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.834062431610743</v>
+        <v>0.83406243809867</v>
       </c>
       <c r="H9" t="n">
-        <v>0.0687158453534238</v>
+        <v>0.0687158477001589</v>
       </c>
       <c r="I9" t="e">
         <v>#NUM!</v>
@@ -745,7 +745,7 @@
         <v>1</v>
       </c>
       <c r="K9" t="n">
-        <v>-2.20237622168859</v>
+        <v>-2.20237606918948</v>
       </c>
       <c r="L9" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.19941421944121</v>
+        <v>1.19941422573164</v>
       </c>
       <c r="H10" t="n">
-        <v>0.0766670408566096</v>
+        <v>0.0766670427160922</v>
       </c>
       <c r="I10" t="e">
         <v>#NUM!</v>
@@ -783,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="K10" t="n">
-        <v>2.84468303108554</v>
+        <v>2.84468305905846</v>
       </c>
       <c r="L10" t="n">
-        <v>0.844657099455799</v>
+        <v>0.844657025285869</v>
       </c>
     </row>
     <row r="11">
@@ -809,10 +809,10 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0.721647797807475</v>
+        <v>0.721647808301967</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0448493114217262</v>
+        <v>0.0448493134006414</v>
       </c>
       <c r="I11" t="e">
         <v>#NUM!</v>
@@ -821,10 +821,10 @@
         <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>-5.24901156976929</v>
+        <v>-5.24901118050249</v>
       </c>
       <c r="L11" t="n">
-        <v>0.0000290543197852686</v>
+        <v>0.0000290543811719412</v>
       </c>
     </row>
     <row r="12">
@@ -847,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.03775760340525</v>
+        <v>1.03775761586694</v>
       </c>
       <c r="H12" t="n">
-        <v>0.0353136785963111</v>
+        <v>0.0353136794109395</v>
       </c>
       <c r="I12" t="e">
         <v>#NUM!</v>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
       <c r="K12" t="n">
-        <v>1.08914215203765</v>
+        <v>1.08914249287715</v>
       </c>
       <c r="L12" t="n">
         <v>1</v>
@@ -885,10 +885,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>1.43803889731001</v>
+        <v>1.43803889366584</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0843960736685838</v>
+        <v>0.0843960764235481</v>
       </c>
       <c r="I13" t="e">
         <v>#NUM!</v>
@@ -897,10 +897,10 @@
         <v>1</v>
       </c>
       <c r="K13" t="n">
-        <v>6.18999429207967</v>
+        <v>6.18999403115247</v>
       </c>
       <c r="L13" t="n">
-        <v>0.000000114316148006892</v>
+        <v>0.000000114316337238339</v>
       </c>
     </row>
     <row r="14">
@@ -923,10 +923,10 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.00013577540763</v>
+        <v>1.00013576696405</v>
       </c>
       <c r="H14" t="n">
-        <v>0.0192806303100428</v>
+        <v>0.019280630144619</v>
       </c>
       <c r="I14" t="e">
         <v>#NUM!</v>
@@ -935,7 +935,7 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.00704254075242351</v>
+        <v>0.00704210282296649</v>
       </c>
       <c r="L14" t="n">
         <v>1</v>
@@ -961,10 +961,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.799289675086905</v>
+        <v>0.799289678825739</v>
       </c>
       <c r="H15" t="n">
-        <v>0.0197753798616798</v>
+        <v>0.0197753800648918</v>
       </c>
       <c r="I15" t="e">
         <v>#NUM!</v>
@@ -973,10 +973,10 @@
         <v>1</v>
       </c>
       <c r="K15" t="n">
-        <v>-9.05501423229071</v>
+        <v>-9.05501399253283</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0000000000000000259444959124296</v>
+        <v>0.0000000000000000259445529094173</v>
       </c>
     </row>
     <row r="16">
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>1.13558243266376</v>
+        <v>1.13558243708535</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02192327451699</v>
+        <v>0.0219232746467873</v>
       </c>
       <c r="I16" t="e">
         <v>#NUM!</v>
@@ -1011,10 +1011,10 @@
         <v>1</v>
       </c>
       <c r="K16" t="n">
-        <v>6.58589554071637</v>
+        <v>6.58589572905201</v>
       </c>
       <c r="L16" t="n">
-        <v>0.00000000859088128537691</v>
+        <v>0.00000000859087039414207</v>
       </c>
     </row>
     <row r="17">
@@ -1037,10 +1037,10 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0.799181165938332</v>
+        <v>0.799181176423688</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0141602295714447</v>
+        <v>0.0141602298686374</v>
       </c>
       <c r="I17" t="e">
         <v>#NUM!</v>
@@ -1049,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="K17" t="n">
-        <v>-12.6516690615695</v>
+        <v>-12.6516682215505</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000000000000000000000000000000000208093837960387</v>
+        <v>0.000000000000000000000000000000000208096063168293</v>
       </c>
     </row>
     <row r="18">
@@ -1075,10 +1075,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>1.13542826942765</v>
+        <v>1.1354282834344</v>
       </c>
       <c r="H18" t="n">
-        <v>0.00988652395823303</v>
+        <v>0.00988652405342971</v>
       </c>
       <c r="I18" t="e">
         <v>#NUM!</v>
@@ -1087,10 +1087,10 @@
         <v>1</v>
       </c>
       <c r="K18" t="n">
-        <v>14.5865870075736</v>
+        <v>14.5865884638138</v>
       </c>
       <c r="L18" t="n">
-        <v>0.000000000000000000000000000000000000000000000649568665621974</v>
+        <v>0.000000000000000000000000000000000000000000000649554803654123</v>
       </c>
     </row>
     <row r="19">
@@ -1113,10 +1113,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.42073952417851</v>
+        <v>1.42073952306461</v>
       </c>
       <c r="H19" t="n">
-        <v>0.0252584534014693</v>
+        <v>0.0252584536431926</v>
       </c>
       <c r="I19" t="e">
         <v>#NUM!</v>
@@ -1125,10 +1125,10 @@
         <v>1</v>
       </c>
       <c r="K19" t="n">
-        <v>19.7530619040476</v>
+        <v>19.7530616554238</v>
       </c>
       <c r="L19" t="n">
-        <v>0.000000000000000000000000000000000000000000000000000000000000000000000000000000000001434473734222</v>
+        <v>0.00000000000000000000000000000000000000000000000000000000000000000000000000000000000143448079701851</v>
       </c>
     </row>
     <row r="20">
@@ -1151,10 +1151,10 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.01588412583499</v>
+        <v>1.01588411734007</v>
       </c>
       <c r="H20" t="n">
-        <v>0.0288500997098938</v>
+        <v>0.0288500995405883</v>
       </c>
       <c r="I20" t="e">
         <v>#NUM!</v>
@@ -1163,7 +1163,7 @@
         <v>1</v>
       </c>
       <c r="K20" t="n">
-        <v>0.554924108950215</v>
+        <v>0.554923813116376</v>
       </c>
       <c r="L20" t="n">
         <v>1</v>
@@ -1189,10 +1189,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.911786349717869</v>
+        <v>0.911786354481104</v>
       </c>
       <c r="H21" t="n">
-        <v>0.0363078418948115</v>
+        <v>0.0363078424045899</v>
       </c>
       <c r="I21" t="e">
         <v>#NUM!</v>
@@ -1201,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="K21" t="n">
-        <v>-2.3191433003679</v>
+        <v>-2.31914314873121</v>
       </c>
       <c r="L21" t="n">
         <v>1</v>
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.09557777570341</v>
+        <v>1.0955777798905</v>
       </c>
       <c r="H22" t="n">
-        <v>0.0318665339435186</v>
+        <v>0.0318665342124215</v>
       </c>
       <c r="I22" t="e">
         <v>#NUM!</v>
@@ -1239,10 +1239,10 @@
         <v>1</v>
       </c>
       <c r="K22" t="n">
-        <v>3.1382889563798</v>
+        <v>3.13828907328628</v>
       </c>
       <c r="L22" t="n">
-        <v>0.322880794706146</v>
+        <v>0.3228806659168</v>
       </c>
     </row>
     <row r="23">
@@ -1265,10 +1265,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0.897529872285821</v>
+        <v>0.897529884479804</v>
       </c>
       <c r="H23" t="n">
-        <v>0.0272780519988985</v>
+        <v>0.0272780526796164</v>
       </c>
       <c r="I23" t="e">
         <v>#NUM!</v>
@@ -1277,10 +1277,10 @@
         <v>1</v>
       </c>
       <c r="K23" t="n">
-        <v>-3.55710682843572</v>
+        <v>-3.55710634097089</v>
       </c>
       <c r="L23" t="n">
-        <v>0.0712427231102025</v>
+        <v>0.0712428552614698</v>
       </c>
     </row>
     <row r="24">
@@ -1303,10 +1303,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>1.07844757865757</v>
+        <v>1.07844759179727</v>
       </c>
       <c r="H24" t="n">
-        <v>0.0145759855455604</v>
+        <v>0.0145759857569906</v>
       </c>
       <c r="I24" t="e">
         <v>#NUM!</v>
@@ -1315,10 +1315,10 @@
         <v>1</v>
       </c>
       <c r="K24" t="n">
-        <v>5.58776236080299</v>
+        <v>5.58776324929333</v>
       </c>
       <c r="L24" t="n">
-        <v>0.0000043702679415886</v>
+        <v>0.00000437024558848459</v>
       </c>
     </row>
     <row r="25">
@@ -1341,10 +1341,10 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.20157290799803</v>
+        <v>1.20157290631312</v>
       </c>
       <c r="H25" t="n">
-        <v>0.0372731185529547</v>
+        <v>0.0372731189808602</v>
       </c>
       <c r="I25" t="e">
         <v>#NUM!</v>
@@ -1353,10 +1353,10 @@
         <v>1</v>
       </c>
       <c r="K25" t="n">
-        <v>5.91972419136083</v>
+        <v>5.91972406989535</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000000612715736495321</v>
+        <v>0.000000612716189003795</v>
       </c>
     </row>
     <row r="26">
@@ -1379,10 +1379,10 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.05346012897214</v>
+        <v>1.05346011701641</v>
       </c>
       <c r="H26" t="n">
-        <v>0.0137454387465042</v>
+        <v>0.0137454385926696</v>
       </c>
       <c r="I26" t="e">
         <v>#NUM!</v>
@@ -1391,10 +1391,10 @@
         <v>1</v>
       </c>
       <c r="K26" t="n">
-        <v>3.99145618827971</v>
+        <v>3.99145531785566</v>
       </c>
       <c r="L26" t="n">
-        <v>0.0124770760422276</v>
+        <v>0.0124771218454165</v>
       </c>
     </row>
     <row r="27">
@@ -1417,10 +1417,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.981584329921569</v>
+        <v>0.981584333008498</v>
       </c>
       <c r="H27" t="n">
-        <v>0.0173449507888231</v>
+        <v>0.0173449509319375</v>
       </c>
       <c r="I27" t="e">
         <v>#NUM!</v>
@@ -1429,7 +1429,7 @@
         <v>1</v>
       </c>
       <c r="K27" t="n">
-        <v>-1.05189407863323</v>
+        <v>-1.05189389528926</v>
       </c>
       <c r="L27" t="n">
         <v>1</v>
@@ -1455,10 +1455,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.14934523878369</v>
+        <v>1.14934524510747</v>
       </c>
       <c r="H28" t="n">
-        <v>0.0149606502544518</v>
+        <v>0.0149606503842491</v>
       </c>
       <c r="I28" t="e">
         <v>#NUM!</v>
@@ -1467,10 +1467,10 @@
         <v>1</v>
       </c>
       <c r="K28" t="n">
-        <v>10.6933953756554</v>
+        <v>10.6933957644108</v>
       </c>
       <c r="L28" t="n">
-        <v>0.00000000000000000000000207660545944933</v>
+        <v>0.00000000000000000000000207659675255054</v>
       </c>
     </row>
     <row r="29">
@@ -1493,10 +1493,10 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0.931771694937617</v>
+        <v>0.931771708442579</v>
       </c>
       <c r="H29" t="n">
-        <v>0.0124292920895988</v>
+        <v>0.0124292923349277</v>
       </c>
       <c r="I29" t="e">
         <v>#NUM!</v>
@@ -1505,10 +1505,10 @@
         <v>1</v>
       </c>
       <c r="K29" t="n">
-        <v>-5.29764169524881</v>
+        <v>-5.29764058092429</v>
       </c>
       <c r="L29" t="n">
-        <v>0.0000222884949346696</v>
+        <v>0.0000222886309123662</v>
       </c>
     </row>
     <row r="30">
@@ -1531,10 +1531,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.09101921104988</v>
+        <v>1.09101922943474</v>
       </c>
       <c r="H30" t="n">
-        <v>0.00646051957573813</v>
+        <v>0.00646051966303547</v>
       </c>
       <c r="I30" t="e">
         <v>#NUM!</v>
@@ -1543,10 +1543,10 @@
         <v>1</v>
       </c>
       <c r="K30" t="n">
-        <v>14.7110783366504</v>
+        <v>14.71108123149</v>
       </c>
       <c r="L30" t="n">
-        <v>0.000000000000000000000000000000000000000000000103983777044131</v>
+        <v>0.000000000000000000000000000000000000000000000103979328586724</v>
       </c>
     </row>
     <row r="31">
@@ -1569,10 +1569,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>1.17090829972349</v>
+        <v>1.17090830248359</v>
       </c>
       <c r="H31" t="n">
-        <v>0.0155842762235852</v>
+        <v>0.0155842763879741</v>
       </c>
       <c r="I31" t="e">
         <v>#NUM!</v>
@@ -1581,10 +1581,10 @@
         <v>1</v>
       </c>
       <c r="K31" t="n">
-        <v>11.8546182137945</v>
+        <v>11.8546182937997</v>
       </c>
       <c r="L31" t="n">
-        <v>0.00000000000000000000000000000386935580687533</v>
+        <v>0.00000000000000000000000000000386935211130301</v>
       </c>
     </row>
   </sheetData>
